--- a/BackTest/2019-11-13 BackTest QTUM.xlsx
+++ b/BackTest/2019-11-13 BackTest QTUM.xlsx
@@ -451,20 +451,14 @@
         <v>2476.966666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>2478</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>2477.133333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>2479</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>2477.216666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>2474</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>2477.166666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>2473</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>2477.033333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>2465</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>2476.85</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>2467</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>2476.666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>2462</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>2476.533333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>2462</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>2476.45</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>2464</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>2476.516666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>2464</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>2476.533333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>2474</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>2476.75</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>2479</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>2476.866666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>2481</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>2476.616666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>2472</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>2476.316666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>2458</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>2476.183333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>2466</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>2476.116666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>2472</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>2475.85</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>2463</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1189,20 +1081,14 @@
         <v>2475.633333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>2465</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1116,14 @@
         <v>2475.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>2470</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1271,20 +1151,14 @@
         <v>2475.466666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>2471</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1312,20 +1186,14 @@
         <v>2475.5</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>2483</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1353,20 +1221,14 @@
         <v>2475.55</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>2486</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,20 +1256,14 @@
         <v>2475.533333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>2483</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1435,20 +1291,14 @@
         <v>2475.533333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>2486</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1476,20 +1326,14 @@
         <v>2475.55</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>2486</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1517,20 +1361,14 @@
         <v>2475.616666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>2487</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1558,20 +1396,14 @@
         <v>2475.766666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>2490</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1599,20 +1431,14 @@
         <v>2475.833333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>2485</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1647,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1686,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1725,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1764,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1803,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1842,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1881,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1920,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1959,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1998,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2037,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2076,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2115,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2154,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2193,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2232,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2271,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2310,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2349,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2388,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2427,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2466,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2505,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2544,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2583,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2622,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2661,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2700,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2739,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2778,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2817,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2856,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2895,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2934,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2973,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3012,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3051,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3090,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3129,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3168,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3207,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3246,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3285,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3324,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3363,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3402,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3441,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3480,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3519,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3558,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3597,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3636,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3675,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3710,15 +3324,11 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3753,12 +3363,10 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3786,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3821,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -4101,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4136,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4171,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4276,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -6338,13 +5946,17 @@
         <v>2571.016666666667</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>2552</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2552</v>
+      </c>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
@@ -6379,8 +5991,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6408,14 +6026,22 @@
         <v>2568.583333333333</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>2556</v>
+      </c>
+      <c r="K161" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6449,8 +6075,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6484,8 +6116,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6519,8 +6157,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6554,8 +6198,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6589,8 +6239,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6624,8 +6280,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6659,8 +6321,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6694,8 +6362,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6729,8 +6403,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6764,8 +6444,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6799,8 +6485,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6834,8 +6526,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6863,14 +6561,22 @@
         <v>2557.016666666667</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>2511</v>
+      </c>
+      <c r="K174" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6898,14 +6604,22 @@
         <v>2556.15</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>2515</v>
+      </c>
+      <c r="K175" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6933,14 +6647,22 @@
         <v>2555.533333333333</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>2536</v>
+      </c>
+      <c r="K176" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6968,14 +6690,22 @@
         <v>2555.416666666667</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K177" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7009,8 +6739,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7044,8 +6780,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7079,8 +6821,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7114,8 +6862,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7149,8 +6903,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7178,14 +6938,22 @@
         <v>2552.566666666667</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>2532</v>
+      </c>
+      <c r="K183" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7213,14 +6981,22 @@
         <v>2551.766666666667</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>2528</v>
+      </c>
+      <c r="K184" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7248,14 +7024,22 @@
         <v>2551.033333333333</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>2532</v>
+      </c>
+      <c r="K185" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7283,14 +7067,22 @@
         <v>2550.183333333333</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>2530</v>
+      </c>
+      <c r="K186" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7318,14 +7110,22 @@
         <v>2549.466666666667</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>2532</v>
+      </c>
+      <c r="K187" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7359,8 +7159,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7394,8 +7200,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7429,8 +7241,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7464,8 +7282,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7499,8 +7323,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7534,8 +7364,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7569,8 +7405,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7604,8 +7446,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7639,8 +7487,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7674,8 +7528,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7709,8 +7569,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7744,8 +7610,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7779,8 +7651,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7814,8 +7692,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7849,8 +7733,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7884,8 +7774,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7919,8 +7815,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7954,8 +7856,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7989,8 +7897,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8024,8 +7938,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8059,8 +7979,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8094,8 +8020,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8129,8 +8061,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8164,8 +8102,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8199,8 +8143,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8234,8 +8184,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8269,8 +8225,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8304,8 +8266,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8339,8 +8307,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +8348,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8409,8 +8389,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8444,8 +8430,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8479,8 +8471,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8514,8 +8512,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8549,8 +8553,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8584,8 +8594,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8619,8 +8635,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8654,8 +8676,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8683,14 +8711,22 @@
         <v>2529.333333333333</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>2505</v>
+      </c>
+      <c r="K226" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8718,14 +8754,22 @@
         <v>2528.783333333333</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>2513</v>
+      </c>
+      <c r="K227" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8753,14 +8797,22 @@
         <v>2528.433333333333</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>2525</v>
+      </c>
+      <c r="K228" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8794,8 +8846,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8829,8 +8887,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8864,8 +8928,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8899,8 +8969,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8934,8 +9010,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8969,8 +9051,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9004,8 +9092,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9039,8 +9133,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9074,8 +9174,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9109,8 +9215,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9144,8 +9256,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9179,8 +9297,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9214,8 +9338,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9249,8 +9379,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9284,8 +9420,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9319,8 +9461,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9354,8 +9502,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9389,8 +9543,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9424,8 +9584,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9459,8 +9625,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9494,8 +9666,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9529,8 +9707,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9564,8 +9748,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9599,8 +9789,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9634,8 +9830,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9669,8 +9871,14 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9704,8 +9912,14 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9739,8 +9953,14 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9774,8 +9994,14 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9809,8 +10035,14 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9844,8 +10076,14 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9879,8 +10117,14 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9914,8 +10158,14 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9949,8 +10199,14 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9984,8 +10240,14 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10019,8 +10281,14 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10054,8 +10322,14 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10089,8 +10363,14 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10124,8 +10404,14 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10159,8 +10445,14 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10194,8 +10486,14 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10229,8 +10527,14 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10264,8 +10568,14 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10299,8 +10609,14 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10334,8 +10650,14 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10369,8 +10691,14 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10404,8 +10732,14 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10439,8 +10773,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10474,8 +10814,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10509,8 +10855,14 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10544,8 +10896,14 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10579,8 +10937,14 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10614,8 +10978,14 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10649,8 +11019,14 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10684,8 +11060,14 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10719,8 +11101,14 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10754,8 +11142,14 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10789,8 +11183,14 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10824,8 +11224,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10859,8 +11265,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10894,8 +11306,14 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10929,8 +11347,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10964,8 +11388,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10999,8 +11429,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11034,8 +11470,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11069,8 +11511,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11104,8 +11552,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11139,8 +11593,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11174,8 +11634,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11209,8 +11675,14 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11244,8 +11716,14 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11279,8 +11757,14 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11314,8 +11798,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11349,8 +11839,14 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11384,8 +11880,14 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11419,8 +11921,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11454,8 +11962,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11489,8 +12003,14 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11524,8 +12044,14 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11559,8 +12085,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11594,8 +12126,14 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11629,8 +12167,14 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11664,8 +12208,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11699,8 +12249,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11734,8 +12290,14 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11769,8 +12331,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11804,8 +12372,14 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11839,8 +12413,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11874,8 +12454,14 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11909,8 +12495,14 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11944,8 +12536,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11979,8 +12577,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12014,8 +12618,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12049,8 +12659,14 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12084,8 +12700,14 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12119,8 +12741,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12154,8 +12782,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12189,8 +12823,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12224,8 +12864,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12259,8 +12905,14 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12294,8 +12946,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12329,8 +12987,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12364,8 +13028,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12399,8 +13069,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12434,8 +13110,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12469,8 +13151,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12504,8 +13192,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12539,8 +13233,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12574,8 +13274,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12609,8 +13315,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12644,8 +13356,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12679,8 +13397,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12714,8 +13438,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12749,8 +13479,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12784,8 +13520,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12819,8 +13561,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12854,8 +13602,14 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12889,8 +13643,14 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12924,8 +13684,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12959,8 +13725,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12994,8 +13766,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13029,8 +13807,14 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13064,8 +13848,14 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13099,8 +13889,14 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13134,8 +13930,14 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13169,8 +13971,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13204,8 +14012,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13239,8 +14053,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13274,8 +14094,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13309,8 +14135,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13344,8 +14176,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13379,8 +14217,14 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13414,8 +14258,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13449,8 +14299,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13484,8 +14340,14 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13519,8 +14381,14 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13554,8 +14422,14 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13589,8 +14463,14 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13624,8 +14504,14 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13659,8 +14545,14 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13694,8 +14586,14 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13729,8 +14627,14 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13764,8 +14668,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13799,8 +14709,14 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13834,8 +14750,14 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13869,8 +14791,14 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -13904,8 +14832,14 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13939,8 +14873,14 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -13974,8 +14914,14 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14009,8 +14955,14 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14044,8 +14996,14 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>2552</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-13 BackTest QTUM.xlsx
+++ b/BackTest/2019-11-13 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4589.7182</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>4589.7182</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>2469</v>
@@ -521,9 +521,11 @@
         <v>4706.1664</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2469</v>
+      </c>
       <c r="J4" t="n">
         <v>2469</v>
       </c>
@@ -560,7 +562,7 @@
         <v>4117.9207</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>2473</v>
@@ -601,7 +603,7 @@
         <v>4215.5207</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>2472</v>
@@ -642,7 +644,7 @@
         <v>4214.5207</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>2479</v>
@@ -683,7 +685,7 @@
         <v>3412.2007</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>2472</v>
@@ -724,7 +726,7 @@
         <v>3412.2007</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>2469</v>
@@ -765,7 +767,7 @@
         <v>3407.2007</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>2469</v>
@@ -806,7 +808,7 @@
         <v>3464.8387</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>2460</v>
@@ -847,7 +849,7 @@
         <v>3316.3387</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>2473</v>
@@ -888,7 +890,7 @@
         <v>3357.2387</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>2469</v>
@@ -929,7 +931,7 @@
         <v>3377.2387</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>2474</v>
@@ -970,7 +972,7 @@
         <v>3377.2387</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>2476</v>
@@ -1011,7 +1013,7 @@
         <v>3377.2387</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>2476</v>
@@ -1052,7 +1054,7 @@
         <v>3377.2387</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>2476</v>
@@ -1093,7 +1095,7 @@
         <v>3381.2758</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>2476</v>
@@ -1134,9 +1136,11 @@
         <v>3381.2758</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2477</v>
+      </c>
       <c r="J19" t="n">
         <v>2469</v>
       </c>
@@ -1173,9 +1177,11 @@
         <v>3510.7658</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2477</v>
+      </c>
       <c r="J20" t="n">
         <v>2469</v>
       </c>
@@ -1212,9 +1218,11 @@
         <v>3520.7658</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2479</v>
+      </c>
       <c r="J21" t="n">
         <v>2469</v>
       </c>
@@ -1251,9 +1259,11 @@
         <v>3542.8892</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2480</v>
+      </c>
       <c r="J22" t="n">
         <v>2469</v>
       </c>
@@ -1290,7 +1300,7 @@
         <v>3542.8892</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>2483</v>
@@ -1331,9 +1341,11 @@
         <v>3790.8892</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2483</v>
+      </c>
       <c r="J24" t="n">
         <v>2469</v>
       </c>
@@ -1370,9 +1382,11 @@
         <v>3953.5658</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2485</v>
+      </c>
       <c r="J25" t="n">
         <v>2469</v>
       </c>
@@ -1409,9 +1423,11 @@
         <v>3953.5658</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2486</v>
+      </c>
       <c r="J26" t="n">
         <v>2469</v>
       </c>
@@ -1448,9 +1464,11 @@
         <v>3953.5658</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2486</v>
+      </c>
       <c r="J27" t="n">
         <v>2469</v>
       </c>
@@ -1487,9 +1505,11 @@
         <v>3953.5658</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2486</v>
+      </c>
       <c r="J28" t="n">
         <v>2469</v>
       </c>
@@ -1526,9 +1546,11 @@
         <v>3952.5658</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2486</v>
+      </c>
       <c r="J29" t="n">
         <v>2469</v>
       </c>
@@ -1565,9 +1587,11 @@
         <v>3952.7758</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2481</v>
+      </c>
       <c r="J30" t="n">
         <v>2469</v>
       </c>
@@ -1604,9 +1628,11 @@
         <v>-1101.800099999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2487</v>
+      </c>
       <c r="J31" t="n">
         <v>2469</v>
       </c>
@@ -1721,9 +1747,11 @@
         <v>-1453.131599999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2471</v>
+      </c>
       <c r="J34" t="n">
         <v>2469</v>
       </c>
@@ -1760,9 +1788,11 @@
         <v>-1460.638099999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2473</v>
+      </c>
       <c r="J35" t="n">
         <v>2469</v>
       </c>
@@ -1799,9 +1829,11 @@
         <v>-1482.269399999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2472</v>
+      </c>
       <c r="J36" t="n">
         <v>2469</v>
       </c>
@@ -1838,9 +1870,11 @@
         <v>-1482.269399999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2468</v>
+      </c>
       <c r="J37" t="n">
         <v>2469</v>
       </c>
@@ -1877,9 +1911,11 @@
         <v>-1412.055999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2468</v>
+      </c>
       <c r="J38" t="n">
         <v>2469</v>
       </c>
@@ -1916,9 +1952,11 @@
         <v>-1414.055999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2480</v>
+      </c>
       <c r="J39" t="n">
         <v>2469</v>
       </c>
@@ -1955,9 +1993,11 @@
         <v>-1415.055999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2477</v>
+      </c>
       <c r="J40" t="n">
         <v>2469</v>
       </c>
@@ -1994,9 +2034,11 @@
         <v>-717.0559999999994</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2476</v>
+      </c>
       <c r="J41" t="n">
         <v>2469</v>
       </c>
@@ -2033,9 +2075,11 @@
         <v>-503.5142999999994</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2478</v>
+      </c>
       <c r="J42" t="n">
         <v>2469</v>
       </c>
@@ -2072,9 +2116,11 @@
         <v>-453.5142999999994</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2482</v>
+      </c>
       <c r="J43" t="n">
         <v>2469</v>
       </c>
@@ -2111,9 +2157,11 @@
         <v>-474.0194999999994</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2485</v>
+      </c>
       <c r="J44" t="n">
         <v>2469</v>
       </c>
@@ -2150,9 +2198,11 @@
         <v>-699.7194999999994</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2484</v>
+      </c>
       <c r="J45" t="n">
         <v>2469</v>
       </c>
@@ -2189,9 +2239,11 @@
         <v>-819.7516999999993</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2475</v>
+      </c>
       <c r="J46" t="n">
         <v>2469</v>
       </c>
@@ -2228,9 +2280,11 @@
         <v>-835.3733999999994</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2474</v>
+      </c>
       <c r="J47" t="n">
         <v>2469</v>
       </c>
@@ -2267,9 +2321,11 @@
         <v>-730.6684999999994</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2471</v>
+      </c>
       <c r="J48" t="n">
         <v>2469</v>
       </c>
@@ -2306,9 +2362,11 @@
         <v>-730.6684999999994</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2480</v>
+      </c>
       <c r="J49" t="n">
         <v>2469</v>
       </c>
@@ -2345,9 +2403,11 @@
         <v>-765.5200999999994</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2480</v>
+      </c>
       <c r="J50" t="n">
         <v>2469</v>
       </c>
@@ -2384,7 +2444,7 @@
         <v>-743.3747999999994</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>2477</v>
@@ -2425,9 +2485,11 @@
         <v>-829.2927999999994</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2487</v>
+      </c>
       <c r="J52" t="n">
         <v>2469</v>
       </c>
@@ -2464,9 +2526,11 @@
         <v>-1557.156799999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2483</v>
+      </c>
       <c r="J53" t="n">
         <v>2469</v>
       </c>
@@ -2503,9 +2567,11 @@
         <v>-1358.177599999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2473</v>
+      </c>
       <c r="J54" t="n">
         <v>2469</v>
       </c>
@@ -2542,9 +2608,11 @@
         <v>-1445.895599999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2483</v>
+      </c>
       <c r="J55" t="n">
         <v>2469</v>
       </c>
@@ -2581,9 +2649,11 @@
         <v>-1410.295599999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2474</v>
+      </c>
       <c r="J56" t="n">
         <v>2469</v>
       </c>
@@ -2620,9 +2690,11 @@
         <v>-1475.007599999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2483</v>
+      </c>
       <c r="J57" t="n">
         <v>2469</v>
       </c>
@@ -2659,9 +2731,11 @@
         <v>-1475.007599999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2474</v>
+      </c>
       <c r="J58" t="n">
         <v>2469</v>
       </c>
@@ -2698,9 +2772,11 @@
         <v>-1476.007599999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2474</v>
+      </c>
       <c r="J59" t="n">
         <v>2469</v>
       </c>
@@ -2737,9 +2813,11 @@
         <v>-1476.007599999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2473</v>
+      </c>
       <c r="J60" t="n">
         <v>2469</v>
       </c>
@@ -2776,9 +2854,11 @@
         <v>1089.8491</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2473</v>
+      </c>
       <c r="J61" t="n">
         <v>2469</v>
       </c>
@@ -2815,9 +2895,11 @@
         <v>1089.8491</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2479</v>
+      </c>
       <c r="J62" t="n">
         <v>2469</v>
       </c>
@@ -2854,9 +2936,11 @@
         <v>1086.6852</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2479</v>
+      </c>
       <c r="J63" t="n">
         <v>2469</v>
       </c>
@@ -2893,9 +2977,11 @@
         <v>565.4012000000004</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2474</v>
+      </c>
       <c r="J64" t="n">
         <v>2469</v>
       </c>
@@ -2932,9 +3018,11 @@
         <v>389.9632000000004</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2470</v>
+      </c>
       <c r="J65" t="n">
         <v>2469</v>
       </c>
@@ -2971,7 +3059,7 @@
         <v>564.4058000000003</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>2464</v>
@@ -3012,9 +3100,11 @@
         <v>388.9678000000004</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2468</v>
+      </c>
       <c r="J67" t="n">
         <v>2469</v>
       </c>
@@ -3051,7 +3141,7 @@
         <v>388.9678000000004</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>2461</v>
@@ -3092,7 +3182,7 @@
         <v>660.0197000000003</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>2461</v>
@@ -3133,7 +3223,7 @@
         <v>660.0197000000003</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>2464</v>
@@ -3174,7 +3264,7 @@
         <v>762.0197000000003</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>2464</v>
@@ -3215,7 +3305,7 @@
         <v>848.8746000000003</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>2474</v>
@@ -3256,7 +3346,7 @@
         <v>847.2759000000003</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>2482</v>
@@ -3297,9 +3387,11 @@
         <v>-800.4222999999997</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2481</v>
+      </c>
       <c r="J74" t="n">
         <v>2469</v>
       </c>
@@ -3336,9 +3428,11 @@
         <v>-801.7173999999998</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2461</v>
+      </c>
       <c r="J75" t="n">
         <v>2469</v>
       </c>
@@ -3375,9 +3469,11 @@
         <v>400.6816000000001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2458</v>
+      </c>
       <c r="J76" t="n">
         <v>2469</v>
       </c>
@@ -3414,9 +3510,11 @@
         <v>1550.6816</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2468</v>
+      </c>
       <c r="J77" t="n">
         <v>2469</v>
       </c>
@@ -3453,9 +3551,11 @@
         <v>950.6816000000001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2472</v>
+      </c>
       <c r="J78" t="n">
         <v>2469</v>
       </c>
@@ -3492,9 +3592,11 @@
         <v>1650.7175</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2461</v>
+      </c>
       <c r="J79" t="n">
         <v>2469</v>
       </c>
@@ -3531,7 +3633,7 @@
         <v>1758.2175</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>2464</v>
@@ -3572,7 +3674,7 @@
         <v>3382.2102</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>2471</v>
@@ -3613,7 +3715,7 @@
         <v>4189.2102</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>2478</v>
@@ -3654,7 +3756,7 @@
         <v>4223.5271</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>2485</v>
@@ -3695,9 +3797,11 @@
         <v>3802.5431</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2486</v>
+      </c>
       <c r="J84" t="n">
         <v>2469</v>
       </c>
@@ -3734,9 +3838,11 @@
         <v>3865.0431</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2484</v>
+      </c>
       <c r="J85" t="n">
         <v>2469</v>
       </c>
@@ -3773,9 +3879,11 @@
         <v>4431.9316</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2486</v>
+      </c>
       <c r="J86" t="n">
         <v>2469</v>
       </c>
@@ -3812,9 +3920,11 @@
         <v>5162.6581</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2487</v>
+      </c>
       <c r="J87" t="n">
         <v>2469</v>
       </c>
@@ -4007,9 +4117,11 @@
         <v>4997.7963</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2482</v>
+      </c>
       <c r="J92" t="n">
         <v>2469</v>
       </c>
@@ -4046,9 +4158,11 @@
         <v>5219.6786</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2482</v>
+      </c>
       <c r="J93" t="n">
         <v>2469</v>
       </c>
@@ -4085,9 +4199,11 @@
         <v>5219.6786</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2493</v>
+      </c>
       <c r="J94" t="n">
         <v>2469</v>
       </c>
@@ -4358,7 +4474,7 @@
         <v>14374.5393</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
@@ -4397,7 +4513,7 @@
         <v>17505.6646</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
@@ -4436,7 +4552,7 @@
         <v>17250.3413</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
@@ -4475,7 +4591,7 @@
         <v>16375.8159</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
@@ -4514,7 +4630,7 @@
         <v>16375.8159</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
@@ -4553,7 +4669,7 @@
         <v>16710.772</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
@@ -4592,7 +4708,7 @@
         <v>16840.772</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
@@ -4631,7 +4747,7 @@
         <v>16310.0972</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
@@ -4709,7 +4825,7 @@
         <v>16310.0972</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
@@ -4787,7 +4903,7 @@
         <v>17794.4987</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
@@ -4865,7 +4981,7 @@
         <v>14893.1525</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
@@ -5099,7 +5215,7 @@
         <v>21968.1998</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
@@ -5177,7 +5293,7 @@
         <v>22199.46475297</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
@@ -5216,7 +5332,7 @@
         <v>22257.46475297</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
@@ -5255,7 +5371,7 @@
         <v>22205.44175297</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
@@ -5294,7 +5410,7 @@
         <v>23074.72055297</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
@@ -5333,7 +5449,7 @@
         <v>25555.09305297</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
@@ -5372,7 +5488,7 @@
         <v>24693.86105297</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
@@ -5450,9 +5566,11 @@
         <v>25016.67295297</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>2554</v>
+      </c>
       <c r="J129" t="n">
         <v>2469</v>
       </c>
@@ -5801,7 +5919,7 @@
         <v>33650.01965296999</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
@@ -6074,7 +6192,7 @@
         <v>34264.29445421999</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
@@ -6082,11 +6200,11 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1.039147428108546</v>
+        <v>1</v>
       </c>
       <c r="M145" t="inlineStr"/>
     </row>
@@ -6113,11 +6231,17 @@
         <v>34621.44795421999</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6149,8 +6273,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6182,8 +6312,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6215,8 +6351,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6248,8 +6390,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6281,8 +6429,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6311,11 +6465,17 @@
         <v>52817.43125421999</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6344,11 +6504,17 @@
         <v>55741.09825421999</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6377,11 +6543,17 @@
         <v>55114.24315421999</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6410,11 +6582,17 @@
         <v>55684.79855421999</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6443,11 +6621,17 @@
         <v>55551.74655421999</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6476,11 +6660,17 @@
         <v>80138.52895421999</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6509,11 +6699,17 @@
         <v>79471.18785421998</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6542,11 +6738,17 @@
         <v>81413.16275421999</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6575,11 +6777,17 @@
         <v>77901.29895421998</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6608,11 +6816,17 @@
         <v>76130.02155421997</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6644,8 +6858,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6674,15 +6894,23 @@
         <v>74901.47375421997</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>1.057778452814905</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1.000405186385737</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6707,7 +6935,7 @@
         <v>74175.94335421997</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6740,7 +6968,7 @@
         <v>72354.10915421997</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6773,7 +7001,7 @@
         <v>64789.35345421997</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6806,7 +7034,7 @@
         <v>62485.90595421997</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6839,7 +7067,7 @@
         <v>62485.90595421997</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6872,7 +7100,7 @@
         <v>57291.41195421997</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6905,7 +7133,7 @@
         <v>61091.56705421997</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6938,7 +7166,7 @@
         <v>59320.06285421996</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6971,7 +7199,7 @@
         <v>59321.06285421996</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7004,7 +7232,7 @@
         <v>61232.94685421996</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7037,7 +7265,7 @@
         <v>61183.54685421996</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7070,7 +7298,7 @@
         <v>60330.76715421996</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7103,7 +7331,7 @@
         <v>59091.83575421996</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7136,7 +7364,7 @@
         <v>60839.91285421996</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7169,7 +7397,7 @@
         <v>63200.29245421996</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7202,7 +7430,7 @@
         <v>57548.59745421996</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7235,7 +7463,7 @@
         <v>58897.67264696996</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7268,7 +7496,7 @@
         <v>56870.23244696997</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7301,7 +7529,7 @@
         <v>57275.87747384997</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7334,7 +7562,7 @@
         <v>55578.61687384997</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7367,7 +7595,7 @@
         <v>54911.97477384997</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7400,7 +7628,7 @@
         <v>54971.97477384997</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7433,7 +7661,7 @@
         <v>54781.99137384997</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7466,7 +7694,7 @@
         <v>54711.81537384998</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7499,7 +7727,7 @@
         <v>56502.03047384998</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7532,7 +7760,7 @@
         <v>55871.35547384997</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7565,7 +7793,7 @@
         <v>55871.35547384997</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7598,7 +7826,7 @@
         <v>55993.75547384997</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7631,7 +7859,7 @@
         <v>55530.74537384998</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7664,7 +7892,7 @@
         <v>55834.24537384998</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7697,7 +7925,7 @@
         <v>56093.03037384998</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7730,7 +7958,7 @@
         <v>56469.55097384998</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7796,7 +8024,7 @@
         <v>56756.54237384998</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7829,7 +8057,7 @@
         <v>56658.54237384998</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7862,7 +8090,7 @@
         <v>53436.04559054998</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7895,7 +8123,7 @@
         <v>53523.76459054998</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7928,7 +8156,7 @@
         <v>52534.07379054998</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7961,7 +8189,7 @@
         <v>52687.81799054999</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7994,7 +8222,7 @@
         <v>51675.94199054999</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8027,7 +8255,7 @@
         <v>51714.81869054999</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8060,7 +8288,7 @@
         <v>50895.60639054999</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8258,7 +8486,7 @@
         <v>51041.38179055</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -11558,7 +11786,7 @@
         <v>51583.73225272</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11591,7 +11819,7 @@
         <v>51817.53225272</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11624,7 +11852,7 @@
         <v>51817.53225272</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11690,7 +11918,7 @@
         <v>51802.07045272001</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12218,7 +12446,7 @@
         <v>53861.037763</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12251,7 +12479,7 @@
         <v>53204.795163</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12284,7 +12512,7 @@
         <v>53121.96986300001</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12317,7 +12545,7 @@
         <v>53125.81886300001</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12350,7 +12578,7 @@
         <v>53056.47736300001</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12383,7 +12611,7 @@
         <v>53056.47736300001</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12416,7 +12644,7 @@
         <v>53055.87826300001</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12449,7 +12677,7 @@
         <v>53939.841463</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12482,7 +12710,7 @@
         <v>54037.69596300001</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12515,7 +12743,7 @@
         <v>53946.83066300001</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12548,7 +12776,7 @@
         <v>53754.98666300001</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12581,7 +12809,7 @@
         <v>53754.98666300001</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12614,7 +12842,7 @@
         <v>53743.85516300001</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12911,7 +13139,7 @@
         <v>53658.012663</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12944,7 +13172,7 @@
         <v>52688.262263</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13010,7 +13238,7 @@
         <v>52813.76336300001</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13043,7 +13271,7 @@
         <v>52387.62336300001</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13076,7 +13304,7 @@
         <v>52672.68236300001</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13109,7 +13337,7 @@
         <v>52587.70786300001</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13142,7 +13370,7 @@
         <v>51703.74466300001</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13307,7 +13535,7 @@
         <v>51820.92216300002</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13340,7 +13568,7 @@
         <v>51823.26606300002</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13373,7 +13601,7 @@
         <v>51725.06986300002</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13406,7 +13634,7 @@
         <v>51679.35746300002</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13439,7 +13667,7 @@
         <v>51679.35746300002</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13472,7 +13700,7 @@
         <v>51679.35746300002</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13505,7 +13733,7 @@
         <v>51679.35746300002</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13538,7 +13766,7 @@
         <v>46312.18516300002</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13571,7 +13799,7 @@
         <v>45904.08366300003</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13604,7 +13832,7 @@
         <v>45896.20426300003</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13670,7 +13898,7 @@
         <v>45779.50366300003</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13703,7 +13931,7 @@
         <v>45823.80366300004</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13736,7 +13964,7 @@
         <v>45823.80366300004</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13769,7 +13997,7 @@
         <v>45823.80366300004</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13802,7 +14030,7 @@
         <v>45823.80366300004</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13835,7 +14063,7 @@
         <v>45823.80366300004</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13868,7 +14096,7 @@
         <v>45823.80366300004</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14858,7 +15086,7 @@
         <v>51882.07266300003</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14891,7 +15119,7 @@
         <v>51882.07266300003</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14924,7 +15152,7 @@
         <v>51882.07266300003</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14990,7 +15218,7 @@
         <v>52843.07266300003</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15023,7 +15251,7 @@
         <v>52843.07266300003</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15155,7 +15383,7 @@
         <v>53061.24536300003</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15188,7 +15416,7 @@
         <v>53061.24536300003</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15287,7 +15515,7 @@
         <v>53063.20096300003</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15320,7 +15548,7 @@
         <v>52958.36846300004</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15353,7 +15581,7 @@
         <v>52958.36846300004</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15386,7 +15614,7 @@
         <v>53208.36846300004</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15419,7 +15647,7 @@
         <v>53627.26906300004</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15452,7 +15680,7 @@
         <v>53627.26906300004</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15485,7 +15713,7 @@
         <v>53627.26906300004</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15518,7 +15746,7 @@
         <v>53627.26906300004</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15551,7 +15779,7 @@
         <v>53627.26906300004</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15584,7 +15812,7 @@
         <v>53527.33906300004</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15617,7 +15845,7 @@
         <v>53527.33906300004</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15650,7 +15878,7 @@
         <v>53527.33906300004</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15683,7 +15911,7 @@
         <v>53527.33906300004</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15716,7 +15944,7 @@
         <v>53527.33906300004</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15749,7 +15977,7 @@
         <v>53117.17016300004</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15782,7 +16010,7 @@
         <v>53237.99416300004</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15815,7 +16043,7 @@
         <v>53520.44516300004</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15848,7 +16076,7 @@
         <v>53520.44516300004</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15881,7 +16109,7 @@
         <v>53511.89876300004</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15914,7 +16142,7 @@
         <v>52281.63338583004</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15947,7 +16175,7 @@
         <v>52281.63338583004</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15980,7 +16208,7 @@
         <v>52281.63338583004</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16013,7 +16241,7 @@
         <v>52304.76808583004</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16046,7 +16274,7 @@
         <v>54085.92248583004</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16079,7 +16307,7 @@
         <v>54157.40627046004</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16090,6 +16318,6 @@
       <c r="M448" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest QTUM.xlsx
+++ b/BackTest/2019-11-13 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -521,11 +521,9 @@
         <v>4706.1664</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2469</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>2469</v>
       </c>
@@ -644,11 +642,9 @@
         <v>4214.5207</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2479</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>2469</v>
       </c>
@@ -685,11 +681,9 @@
         <v>3412.2007</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>2469</v>
       </c>
@@ -890,11 +884,9 @@
         <v>3357.2387</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2469</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>2469</v>
       </c>
@@ -931,11 +923,9 @@
         <v>3377.2387</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>2469</v>
       </c>
@@ -972,11 +962,9 @@
         <v>3377.2387</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>2469</v>
       </c>
@@ -1013,11 +1001,9 @@
         <v>3377.2387</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>2469</v>
       </c>
@@ -1054,11 +1040,9 @@
         <v>3377.2387</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>2469</v>
       </c>
@@ -1095,11 +1079,9 @@
         <v>3381.2758</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>2469</v>
       </c>
@@ -1136,11 +1118,9 @@
         <v>3381.2758</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2477</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>2469</v>
       </c>
@@ -1177,11 +1157,9 @@
         <v>3510.7658</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2477</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>2469</v>
       </c>
@@ -1218,11 +1196,9 @@
         <v>3520.7658</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2479</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>2469</v>
       </c>
@@ -1259,11 +1235,9 @@
         <v>3542.8892</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>2469</v>
       </c>
@@ -1300,11 +1274,9 @@
         <v>3542.8892</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>2469</v>
       </c>
@@ -1341,11 +1313,9 @@
         <v>3790.8892</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>2469</v>
       </c>
@@ -1382,11 +1352,9 @@
         <v>3953.5658</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>2469</v>
       </c>
@@ -1423,11 +1391,9 @@
         <v>3953.5658</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2486</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>2469</v>
       </c>
@@ -1464,11 +1430,9 @@
         <v>3953.5658</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2486</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>2469</v>
       </c>
@@ -1505,11 +1469,9 @@
         <v>3953.5658</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2486</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>2469</v>
       </c>
@@ -1546,11 +1508,9 @@
         <v>3952.5658</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2486</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>2469</v>
       </c>
@@ -1587,11 +1547,9 @@
         <v>3952.7758</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>2469</v>
       </c>
@@ -1628,11 +1586,9 @@
         <v>-1101.800099999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2487</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>2469</v>
       </c>
@@ -1952,11 +1908,9 @@
         <v>-1414.055999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>2469</v>
       </c>
@@ -1993,11 +1947,9 @@
         <v>-1415.055999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2477</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>2469</v>
       </c>
@@ -2075,11 +2027,9 @@
         <v>-503.5142999999994</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2478</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>2469</v>
       </c>
@@ -2116,11 +2066,9 @@
         <v>-453.5142999999994</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2482</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>2469</v>
       </c>
@@ -2157,11 +2105,9 @@
         <v>-474.0194999999994</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>2469</v>
       </c>
@@ -2198,11 +2144,9 @@
         <v>-699.7194999999994</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2484</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>2469</v>
       </c>
@@ -2239,11 +2183,9 @@
         <v>-819.7516999999993</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>2469</v>
       </c>
@@ -2280,11 +2222,9 @@
         <v>-835.3733999999994</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>2469</v>
       </c>
@@ -2403,11 +2343,9 @@
         <v>-765.5200999999994</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>2469</v>
       </c>
@@ -2444,11 +2382,9 @@
         <v>-743.3747999999994</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2477</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>2469</v>
       </c>
@@ -2485,11 +2421,9 @@
         <v>-829.2927999999994</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2487</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>2469</v>
       </c>
@@ -2526,11 +2460,9 @@
         <v>-1557.156799999999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>2469</v>
       </c>
@@ -2567,11 +2499,9 @@
         <v>-1358.177599999999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>2469</v>
       </c>
@@ -2608,11 +2538,9 @@
         <v>-1445.895599999999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>2469</v>
       </c>
@@ -2649,11 +2577,9 @@
         <v>-1410.295599999999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>2469</v>
       </c>
@@ -2690,11 +2616,9 @@
         <v>-1475.007599999999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>2469</v>
       </c>
@@ -2731,11 +2655,9 @@
         <v>-1475.007599999999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>2469</v>
       </c>
@@ -2772,11 +2694,9 @@
         <v>-1476.007599999999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>2469</v>
       </c>
@@ -2813,11 +2733,9 @@
         <v>-1476.007599999999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>2469</v>
       </c>
@@ -2936,11 +2854,9 @@
         <v>1086.6852</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2479</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>2469</v>
       </c>
@@ -3387,11 +3303,9 @@
         <v>-800.4222999999997</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>2469</v>
       </c>
@@ -3428,11 +3342,9 @@
         <v>-801.7173999999998</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>2469</v>
       </c>
@@ -3510,11 +3422,9 @@
         <v>1550.6816</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>2469</v>
       </c>
@@ -3551,11 +3461,9 @@
         <v>950.6816000000001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>2469</v>
       </c>
@@ -3715,11 +3623,9 @@
         <v>4189.2102</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2478</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>2469</v>
       </c>
@@ -3756,11 +3662,9 @@
         <v>4223.5271</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>2469</v>
       </c>
@@ -3797,11 +3701,9 @@
         <v>3802.5431</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2486</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>2469</v>
       </c>
@@ -3838,11 +3740,9 @@
         <v>3865.0431</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2484</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>2469</v>
       </c>
@@ -3879,11 +3779,9 @@
         <v>4431.9316</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2486</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>2469</v>
       </c>
@@ -3920,11 +3818,9 @@
         <v>5162.6581</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>2487</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>2469</v>
       </c>
@@ -4117,11 +4013,9 @@
         <v>4997.7963</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2482</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>2469</v>
       </c>
@@ -4158,11 +4052,9 @@
         <v>5219.6786</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2482</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>2469</v>
       </c>
@@ -4199,11 +4091,9 @@
         <v>5219.6786</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2493</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>2469</v>
       </c>
@@ -4513,7 +4403,7 @@
         <v>17505.6646</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
@@ -4521,11 +4411,11 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1</v>
+        <v>1.029426893479142</v>
       </c>
       <c r="M102" t="inlineStr"/>
     </row>
@@ -4552,17 +4442,11 @@
         <v>17250.3413</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4591,17 +4475,11 @@
         <v>16375.8159</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4630,17 +4508,11 @@
         <v>16375.8159</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4669,17 +4541,11 @@
         <v>16710.772</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4708,17 +4574,11 @@
         <v>16840.772</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4747,17 +4607,11 @@
         <v>16310.0972</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4786,17 +4640,11 @@
         <v>16310.0972</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4825,17 +4673,11 @@
         <v>16310.0972</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4864,17 +4706,11 @@
         <v>17750.4069</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4903,17 +4739,11 @@
         <v>17794.4987</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4945,14 +4775,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4984,14 +4808,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -5023,14 +4841,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5062,14 +4874,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5101,14 +4907,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5140,14 +4940,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5176,17 +4970,11 @@
         <v>20389.4226</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5215,17 +5003,11 @@
         <v>21968.1998</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5254,17 +5036,11 @@
         <v>22389.46475297</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5293,17 +5069,11 @@
         <v>22199.46475297</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5332,17 +5102,11 @@
         <v>22257.46475297</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5371,17 +5135,11 @@
         <v>22205.44175297</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5410,17 +5168,11 @@
         <v>23074.72055297</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5449,17 +5201,11 @@
         <v>25555.09305297</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5488,17 +5234,11 @@
         <v>24693.86105297</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5527,17 +5267,11 @@
         <v>25016.67295297</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5566,19 +5300,11 @@
         <v>25016.67295297</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>2554</v>
-      </c>
-      <c r="J129" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5607,17 +5333,11 @@
         <v>25698.27495297</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5646,17 +5366,11 @@
         <v>25698.27495297</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5685,17 +5399,11 @@
         <v>26414.11155297</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5724,17 +5432,11 @@
         <v>26414.11155297</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5763,17 +5465,11 @@
         <v>26255.97935297</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5802,17 +5498,11 @@
         <v>30117.77085297</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5841,17 +5531,11 @@
         <v>33460.43455296999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5883,14 +5567,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5922,14 +5600,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5961,14 +5633,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -6000,14 +5666,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -6039,14 +5699,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6078,14 +5732,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6117,14 +5765,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6156,14 +5798,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6195,14 +5831,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6234,14 +5864,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6273,14 +5897,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6312,14 +5930,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6351,14 +5963,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6390,14 +5996,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6429,14 +6029,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6468,14 +6062,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6507,14 +6095,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6546,14 +6128,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6585,14 +6161,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6624,14 +6194,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6663,14 +6227,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6702,14 +6260,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6741,14 +6293,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6780,14 +6326,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6819,14 +6359,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6858,14 +6392,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6894,23 +6422,15 @@
         <v>74901.47375421997</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
-        <v>1.057778452814905</v>
-      </c>
-      <c r="M163" t="n">
-        <v>1.000405186385737</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6935,7 +6455,7 @@
         <v>74175.94335421997</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6968,7 +6488,7 @@
         <v>72354.10915421997</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -7001,7 +6521,7 @@
         <v>64789.35345421997</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -7034,7 +6554,7 @@
         <v>62485.90595421997</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -7067,7 +6587,7 @@
         <v>62485.90595421997</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -7100,7 +6620,7 @@
         <v>57291.41195421997</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -7133,7 +6653,7 @@
         <v>61091.56705421997</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -7166,7 +6686,7 @@
         <v>59320.06285421996</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7199,7 +6719,7 @@
         <v>59321.06285421996</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7232,7 +6752,7 @@
         <v>61232.94685421996</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7265,7 +6785,7 @@
         <v>61183.54685421996</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7298,7 +6818,7 @@
         <v>60330.76715421996</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7331,7 +6851,7 @@
         <v>59091.83575421996</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7364,7 +6884,7 @@
         <v>60839.91285421996</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7397,7 +6917,7 @@
         <v>63200.29245421996</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7430,7 +6950,7 @@
         <v>57548.59745421996</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7463,7 +6983,7 @@
         <v>58897.67264696996</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7496,7 +7016,7 @@
         <v>56870.23244696997</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7529,7 +7049,7 @@
         <v>57275.87747384997</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7562,7 +7082,7 @@
         <v>55578.61687384997</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7595,7 +7115,7 @@
         <v>54911.97477384997</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7628,7 +7148,7 @@
         <v>54971.97477384997</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7661,7 +7181,7 @@
         <v>54781.99137384997</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7694,7 +7214,7 @@
         <v>54711.81537384998</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7727,7 +7247,7 @@
         <v>56502.03047384998</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7760,7 +7280,7 @@
         <v>55871.35547384997</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7793,7 +7313,7 @@
         <v>55871.35547384997</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7859,7 +7379,7 @@
         <v>55530.74537384998</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -8024,7 +7544,7 @@
         <v>56756.54237384998</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8057,7 +7577,7 @@
         <v>56658.54237384998</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8090,7 +7610,7 @@
         <v>53436.04559054998</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8123,7 +7643,7 @@
         <v>53523.76459054998</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8156,7 +7676,7 @@
         <v>52534.07379054998</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8189,7 +7709,7 @@
         <v>52687.81799054999</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8222,7 +7742,7 @@
         <v>51675.94199054999</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8255,7 +7775,7 @@
         <v>51714.81869054999</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8486,7 +8006,7 @@
         <v>51041.38179055</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -11291,7 +10811,7 @@
         <v>44749.14395272001</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -12116,7 +11636,7 @@
         <v>52294.61635272</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12149,7 +11669,7 @@
         <v>52296.615963</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12182,7 +11702,7 @@
         <v>52159.000163</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12215,7 +11735,7 @@
         <v>51377.049263</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12248,7 +11768,7 @@
         <v>51782.349263</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12281,7 +11801,7 @@
         <v>52113.049263</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12314,7 +11834,7 @@
         <v>52123.149263</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12347,7 +11867,7 @@
         <v>52312.779463</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12380,7 +11900,7 @@
         <v>52476.779463</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -13139,7 +12659,7 @@
         <v>53658.012663</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13172,7 +12692,7 @@
         <v>52688.262263</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13238,7 +12758,7 @@
         <v>52813.76336300001</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13271,7 +12791,7 @@
         <v>52387.62336300001</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13304,7 +12824,7 @@
         <v>52672.68236300001</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13337,7 +12857,7 @@
         <v>52587.70786300001</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13370,7 +12890,7 @@
         <v>51703.74466300001</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13535,7 +13055,7 @@
         <v>51820.92216300002</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13568,7 +13088,7 @@
         <v>51823.26606300002</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13601,7 +13121,7 @@
         <v>51725.06986300002</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13634,7 +13154,7 @@
         <v>51679.35746300002</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13667,7 +13187,7 @@
         <v>51679.35746300002</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13700,7 +13220,7 @@
         <v>51679.35746300002</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13733,7 +13253,7 @@
         <v>51679.35746300002</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13766,7 +13286,7 @@
         <v>46312.18516300002</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13799,7 +13319,7 @@
         <v>45904.08366300003</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13832,7 +13352,7 @@
         <v>45896.20426300003</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13898,7 +13418,7 @@
         <v>45779.50366300003</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13931,7 +13451,7 @@
         <v>45823.80366300004</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13964,7 +13484,7 @@
         <v>45823.80366300004</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13997,7 +13517,7 @@
         <v>45823.80366300004</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14030,7 +13550,7 @@
         <v>45823.80366300004</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14063,7 +13583,7 @@
         <v>45823.80366300004</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14096,7 +13616,7 @@
         <v>45823.80366300004</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -15845,7 +15365,7 @@
         <v>53527.33906300004</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15878,7 +15398,7 @@
         <v>53527.33906300004</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15911,7 +15431,7 @@
         <v>53527.33906300004</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15944,7 +15464,7 @@
         <v>53527.33906300004</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15977,7 +15497,7 @@
         <v>53117.17016300004</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16010,7 +15530,7 @@
         <v>53237.99416300004</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16043,7 +15563,7 @@
         <v>53520.44516300004</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16076,7 +15596,7 @@
         <v>53520.44516300004</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16109,7 +15629,7 @@
         <v>53511.89876300004</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16142,7 +15662,7 @@
         <v>52281.63338583004</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16175,7 +15695,7 @@
         <v>52281.63338583004</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16208,7 +15728,7 @@
         <v>52281.63338583004</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16241,7 +15761,7 @@
         <v>52304.76808583004</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16274,7 +15794,7 @@
         <v>54085.92248583004</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16307,7 +15827,7 @@
         <v>54157.40627046004</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16318,6 +15838,6 @@
       <c r="M448" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest QTUM.xlsx
+++ b/BackTest/2019-11-13 BackTest QTUM.xlsx
@@ -521,9 +521,11 @@
         <v>4706.1664</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2469</v>
+      </c>
       <c r="J4" t="n">
         <v>2469</v>
       </c>
@@ -642,9 +644,11 @@
         <v>4214.5207</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2479</v>
+      </c>
       <c r="J7" t="n">
         <v>2469</v>
       </c>
@@ -681,9 +685,11 @@
         <v>3412.2007</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2472</v>
+      </c>
       <c r="J8" t="n">
         <v>2469</v>
       </c>
@@ -884,9 +890,11 @@
         <v>3357.2387</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2469</v>
+      </c>
       <c r="J13" t="n">
         <v>2469</v>
       </c>
@@ -923,9 +931,11 @@
         <v>3377.2387</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2474</v>
+      </c>
       <c r="J14" t="n">
         <v>2469</v>
       </c>
@@ -962,9 +972,11 @@
         <v>3377.2387</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2476</v>
+      </c>
       <c r="J15" t="n">
         <v>2469</v>
       </c>
@@ -1001,9 +1013,11 @@
         <v>3377.2387</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2476</v>
+      </c>
       <c r="J16" t="n">
         <v>2469</v>
       </c>
@@ -1040,9 +1054,11 @@
         <v>3377.2387</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2476</v>
+      </c>
       <c r="J17" t="n">
         <v>2469</v>
       </c>
@@ -1079,9 +1095,11 @@
         <v>3381.2758</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2476</v>
+      </c>
       <c r="J18" t="n">
         <v>2469</v>
       </c>
@@ -1118,9 +1136,11 @@
         <v>3381.2758</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2477</v>
+      </c>
       <c r="J19" t="n">
         <v>2469</v>
       </c>
@@ -1157,9 +1177,11 @@
         <v>3510.7658</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2477</v>
+      </c>
       <c r="J20" t="n">
         <v>2469</v>
       </c>
@@ -1196,9 +1218,11 @@
         <v>3520.7658</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2479</v>
+      </c>
       <c r="J21" t="n">
         <v>2469</v>
       </c>
@@ -1235,9 +1259,11 @@
         <v>3542.8892</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2480</v>
+      </c>
       <c r="J22" t="n">
         <v>2469</v>
       </c>
@@ -1703,11 +1729,9 @@
         <v>-1453.131599999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2471</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>2469</v>
       </c>
@@ -1744,11 +1768,9 @@
         <v>-1460.638099999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>2469</v>
       </c>
@@ -1785,11 +1807,9 @@
         <v>-1482.269399999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>2469</v>
       </c>
@@ -1826,11 +1846,9 @@
         <v>-1482.269399999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>2469</v>
       </c>
@@ -1867,11 +1885,9 @@
         <v>-1412.055999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>2469</v>
       </c>
@@ -1986,11 +2002,9 @@
         <v>-717.0559999999994</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>2469</v>
       </c>
@@ -2302,11 +2316,9 @@
         <v>-730.6684999999994</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>2469</v>
       </c>
@@ -2382,9 +2394,11 @@
         <v>-743.3747999999994</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2477</v>
+      </c>
       <c r="J51" t="n">
         <v>2469</v>
       </c>
@@ -2421,9 +2435,11 @@
         <v>-829.2927999999994</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2487</v>
+      </c>
       <c r="J52" t="n">
         <v>2469</v>
       </c>
@@ -2499,9 +2515,11 @@
         <v>-1358.177599999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2473</v>
+      </c>
       <c r="J54" t="n">
         <v>2469</v>
       </c>
@@ -2538,9 +2556,11 @@
         <v>-1445.895599999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2483</v>
+      </c>
       <c r="J55" t="n">
         <v>2469</v>
       </c>
@@ -2577,9 +2597,11 @@
         <v>-1410.295599999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2474</v>
+      </c>
       <c r="J56" t="n">
         <v>2469</v>
       </c>
@@ -2655,9 +2677,11 @@
         <v>-1475.007599999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2474</v>
+      </c>
       <c r="J58" t="n">
         <v>2469</v>
       </c>
@@ -2694,9 +2718,11 @@
         <v>-1476.007599999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2474</v>
+      </c>
       <c r="J59" t="n">
         <v>2469</v>
       </c>
@@ -2733,9 +2759,11 @@
         <v>-1476.007599999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2473</v>
+      </c>
       <c r="J60" t="n">
         <v>2469</v>
       </c>
@@ -2854,9 +2882,11 @@
         <v>1086.6852</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2479</v>
+      </c>
       <c r="J63" t="n">
         <v>2469</v>
       </c>
@@ -3303,9 +3333,11 @@
         <v>-800.4222999999997</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2481</v>
+      </c>
       <c r="J74" t="n">
         <v>2469</v>
       </c>
@@ -3342,9 +3374,11 @@
         <v>-801.7173999999998</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2461</v>
+      </c>
       <c r="J75" t="n">
         <v>2469</v>
       </c>
@@ -3422,9 +3456,11 @@
         <v>1550.6816</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2468</v>
+      </c>
       <c r="J77" t="n">
         <v>2469</v>
       </c>
@@ -3461,9 +3497,11 @@
         <v>950.6816000000001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2472</v>
+      </c>
       <c r="J78" t="n">
         <v>2469</v>
       </c>
@@ -3623,9 +3661,11 @@
         <v>4189.2102</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2478</v>
+      </c>
       <c r="J82" t="n">
         <v>2469</v>
       </c>
@@ -3662,9 +3702,11 @@
         <v>4223.5271</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2485</v>
+      </c>
       <c r="J83" t="n">
         <v>2469</v>
       </c>
@@ -3701,9 +3743,11 @@
         <v>3802.5431</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2486</v>
+      </c>
       <c r="J84" t="n">
         <v>2469</v>
       </c>
@@ -3779,9 +3823,11 @@
         <v>4431.9316</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2486</v>
+      </c>
       <c r="J86" t="n">
         <v>2469</v>
       </c>
@@ -4403,7 +4449,7 @@
         <v>17505.6646</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
@@ -4411,11 +4457,11 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.029426893479142</v>
+        <v>1</v>
       </c>
       <c r="M102" t="inlineStr"/>
     </row>
@@ -4442,11 +4488,17 @@
         <v>17250.3413</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4475,11 +4527,17 @@
         <v>16375.8159</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4508,11 +4566,17 @@
         <v>16375.8159</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4541,11 +4605,17 @@
         <v>16710.772</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4574,11 +4644,17 @@
         <v>16840.772</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4607,11 +4683,17 @@
         <v>16310.0972</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4640,11 +4722,17 @@
         <v>16310.0972</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4673,11 +4761,17 @@
         <v>16310.0972</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4706,11 +4800,17 @@
         <v>17750.4069</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4739,11 +4839,17 @@
         <v>17794.4987</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4775,8 +4881,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4808,8 +4920,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4841,8 +4959,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4874,8 +4998,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4907,8 +5037,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4940,8 +5076,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4970,11 +5112,17 @@
         <v>20389.4226</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5003,11 +5151,17 @@
         <v>21968.1998</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5036,11 +5190,17 @@
         <v>22389.46475297</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5069,11 +5229,17 @@
         <v>22199.46475297</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5102,11 +5268,17 @@
         <v>22257.46475297</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5135,11 +5307,17 @@
         <v>22205.44175297</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5168,11 +5346,17 @@
         <v>23074.72055297</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5201,11 +5385,17 @@
         <v>25555.09305297</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5234,11 +5424,17 @@
         <v>24693.86105297</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5267,11 +5463,17 @@
         <v>25016.67295297</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5300,11 +5502,17 @@
         <v>25016.67295297</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5333,11 +5541,17 @@
         <v>25698.27495297</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5366,11 +5580,17 @@
         <v>25698.27495297</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5399,11 +5619,17 @@
         <v>26414.11155297</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5432,11 +5658,17 @@
         <v>26414.11155297</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5465,11 +5697,17 @@
         <v>26255.97935297</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5498,11 +5736,17 @@
         <v>30117.77085297</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5531,11 +5775,17 @@
         <v>33460.43455296999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5567,8 +5817,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5600,8 +5856,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5633,8 +5895,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5666,8 +5934,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5699,8 +5973,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5732,8 +6012,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5765,8 +6051,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5798,8 +6090,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5831,8 +6129,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5864,8 +6168,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5897,8 +6207,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5930,8 +6246,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5963,8 +6285,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5996,8 +6324,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6029,8 +6363,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6062,8 +6402,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6095,8 +6441,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6128,8 +6480,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6161,8 +6519,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6191,15 +6555,23 @@
         <v>55551.74655421999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>2469</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>1.054538274605103</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1.000405186385737</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6224,7 +6596,7 @@
         <v>80138.52895421999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6257,7 +6629,7 @@
         <v>79471.18785421998</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6290,7 +6662,7 @@
         <v>81413.16275421999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6323,7 +6695,7 @@
         <v>77901.29895421998</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6356,7 +6728,7 @@
         <v>76130.02155421997</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6389,7 +6761,7 @@
         <v>74570.77645421997</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6422,7 +6794,7 @@
         <v>74901.47375421997</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6455,7 +6827,7 @@
         <v>74175.94335421997</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6488,7 +6860,7 @@
         <v>72354.10915421997</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6521,7 +6893,7 @@
         <v>64789.35345421997</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6554,7 +6926,7 @@
         <v>62485.90595421997</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -10811,7 +11183,7 @@
         <v>44749.14395272001</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11636,7 +12008,7 @@
         <v>52294.61635272</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11669,7 +12041,7 @@
         <v>52296.615963</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11702,7 +12074,7 @@
         <v>52159.000163</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11735,7 +12107,7 @@
         <v>51377.049263</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11768,7 +12140,7 @@
         <v>51782.349263</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11801,7 +12173,7 @@
         <v>52113.049263</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11834,7 +12206,7 @@
         <v>52123.149263</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11867,7 +12239,7 @@
         <v>52312.779463</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11900,7 +12272,7 @@
         <v>52476.779463</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
